--- a/학점은행제_계획표.xlsx
+++ b/학점은행제_계획표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nalki\Desktop\독학사 관련\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E48C70-B7A3-426C-9411-E0F527F20673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27199618-A680-4416-8B56-A8115B3428A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1404" yWindow="288" windowWidth="17256" windowHeight="11520" xr2:uid="{958FFD61-372E-4909-8713-4FCD8AE0888F}"/>
+    <workbookView xWindow="39360" yWindow="2730" windowWidth="17250" windowHeight="11520" xr2:uid="{958FFD61-372E-4909-8713-4FCD8AE0888F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9과목(30점)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -348,6 +344,10 @@
       <t xml:space="preserve">
 발표 3/30(월)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10과목(30점)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +782,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -867,7 +867,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -921,7 +921,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/학점은행제_계획표.xlsx
+++ b/학점은행제_계획표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nalki\Desktop\독학사 관련\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\독학사관련\Bachelor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E48C70-B7A3-426C-9411-E0F527F20673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1179EB-27F9-46A1-B828-179157DAD7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1404" yWindow="288" windowWidth="17256" windowHeight="11520" xr2:uid="{958FFD61-372E-4909-8713-4FCD8AE0888F}"/>
+    <workbookView xWindow="-28935" yWindow="8850" windowWidth="16575" windowHeight="11295" xr2:uid="{958FFD61-372E-4909-8713-4FCD8AE0888F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9과목(30점)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -348,6 +344,10 @@
       <t xml:space="preserve">
 발표 3/30(월)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10과목(30점)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,21 +782,21 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.296875" customWidth="1"/>
-    <col min="3" max="3" width="28.8984375" customWidth="1"/>
-    <col min="4" max="4" width="26.296875" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.9140625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.9140625" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -808,7 +808,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -834,7 +834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="78" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="80" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,7 +858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -867,7 +867,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -880,7 +880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="93.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -904,7 +904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,7 +921,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/학점은행제_계획표.xlsx
+++ b/학점은행제_계획표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\독학사관련\Bachelor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1179EB-27F9-46A1-B828-179157DAD7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D1634F-F6C9-429D-A3EB-81A2AA7ECEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28935" yWindow="8850" windowWidth="16575" windowHeight="11295" xr2:uid="{958FFD61-372E-4909-8713-4FCD8AE0888F}"/>
+    <workbookView xWindow="-19575" yWindow="9480" windowWidth="16575" windowHeight="11295" xr2:uid="{958FFD61-372E-4909-8713-4FCD8AE0888F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잔여 학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학점 취합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,6 +344,10 @@
   </si>
   <si>
     <t>10과목(30점)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부족 학점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +782,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -798,7 +798,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -810,28 +810,28 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="80" x14ac:dyDescent="0.45">
@@ -839,23 +839,23 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.45">
@@ -863,21 +863,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.45">
@@ -885,43 +885,43 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
